--- a/Assets/Dokumentation/Projektplan.xlsx
+++ b/Assets/Dokumentation/Projektplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MajkenPlugge/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MajkenPlugge/Documents/Github/4Gewinnt/Assets/Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,7 +214,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d\.m;@"/>
+    <numFmt numFmtId="164" formatCode="d\.m;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -328,16 +328,10 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,9 +339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,6 +352,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,408 +662,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
     </row>
     <row r="2" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="14" t="s">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
     </row>
     <row r="3" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
     </row>
     <row r="4" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4" t="s">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4" t="s">
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4" t="s">
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="1" t="s">
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1" t="s">
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1" t="s">
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1" t="s">
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
@@ -1264,559 +1264,559 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X9" s="5"/>
+      <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AS10" s="5"/>
+      <c r="AM10" s="3"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="BN11" s="5"/>
-    </row>
-    <row r="12" spans="1:74" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="BN11" s="3"/>
+    </row>
+    <row r="12" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-    </row>
-    <row r="17" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+    </row>
+    <row r="17" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-    </row>
-    <row r="21" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+    </row>
+    <row r="21" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-    </row>
-    <row r="25" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+    </row>
+    <row r="25" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="BI34" s="13"/>
-      <c r="BJ34" s="13"/>
-      <c r="BK34" s="13"/>
-      <c r="BL34" s="13"/>
-      <c r="BM34" s="13"/>
-      <c r="BN34" s="13"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
     </row>
     <row r="35" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="13"/>
-      <c r="AQ37" s="13"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="13"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="13"/>
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="13"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
     </row>
     <row r="39" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AT39" s="13"/>
-      <c r="AU39" s="13"/>
-      <c r="AV39" s="13"/>
-      <c r="AW39" s="13"/>
-      <c r="AX39" s="13"/>
-      <c r="AY39" s="13"/>
-      <c r="AZ39" s="13"/>
-      <c r="BA39" s="13"/>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="13"/>
-      <c r="BD39" s="13"/>
-      <c r="BE39" s="13"/>
-      <c r="BF39" s="13"/>
-      <c r="BG39" s="13"/>
-      <c r="BH39" s="13"/>
-    </row>
-    <row r="40" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="10"/>
+      <c r="BA39" s="10"/>
+      <c r="BB39" s="10"/>
+      <c r="BC39" s="10"/>
+      <c r="BD39" s="10"/>
+      <c r="BE39" s="10"/>
+      <c r="BF39" s="10"/>
+      <c r="BG39" s="10"/>
+      <c r="BH39" s="10"/>
+    </row>
+    <row r="40" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-    </row>
-    <row r="42" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="B41" s="8"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+    </row>
+    <row r="42" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="13"/>
-      <c r="AM42" s="13"/>
+      <c r="B42" s="8"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AN43" s="13"/>
-      <c r="AO43" s="13"/>
-      <c r="AP43" s="13"/>
-      <c r="AQ43" s="13"/>
-      <c r="AR43" s="13"/>
-      <c r="AS43" s="13"/>
-      <c r="AT43" s="13"/>
-    </row>
-    <row r="44" spans="1:66" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+    </row>
+    <row r="44" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="13"/>
-      <c r="AP45" s="13"/>
-      <c r="AQ45" s="13"/>
-      <c r="AR45" s="13"/>
-      <c r="AS45" s="13"/>
-      <c r="AT45" s="13"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AU46" s="13"/>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="13"/>
-      <c r="AX46" s="13"/>
-      <c r="AY46" s="13"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="13"/>
-      <c r="BB46" s="13"/>
+      <c r="AU46" s="10"/>
+      <c r="AV46" s="10"/>
+      <c r="AW46" s="10"/>
+      <c r="AX46" s="10"/>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="10"/>
+      <c r="BA46" s="10"/>
+      <c r="BB46" s="10"/>
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="BC47" s="13"/>
-      <c r="BD47" s="13"/>
-      <c r="BE47" s="13"/>
-      <c r="BF47" s="13"/>
-      <c r="BG47" s="13"/>
-      <c r="BH47" s="13"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="10"/>
+      <c r="BF47" s="10"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="BG5:BM5"/>
     <mergeCell ref="AS5:AY5"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="BN5:BO5"/>
     <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="A1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
